--- a/Tugas Normalisasi Ida Natalia Sinaga.xlsx
+++ b/Tugas Normalisasi Ida Natalia Sinaga.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studi Indenpenden\Normalisasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A3E1CD-5F84-454E-8A55-301F5C5E670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92A1313-A0A7-4229-A91A-ED758FD8F195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{96DCD083-D29A-496B-9799-3FD385EFBDA7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="80">
   <si>
     <t>Id Personel</t>
   </si>
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,16 +369,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,7 +383,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,18 +727,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -1350,7 +1349,7 @@
       <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1662,12 +1661,12 @@
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2206,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9560B2-6650-4D25-BE07-AE3A568EAFE6}">
-  <dimension ref="B2:M94"/>
+  <dimension ref="B2:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,11 +2217,11 @@
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" customWidth="1"/>
@@ -2230,264 +2229,264 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>10001</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>43831</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>43833</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8">
         <v>43845</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>43847</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8">
         <v>43850</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>43854</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
         <v>43864</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>43865</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8">
         <v>43898</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>43900</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
         <v>43926</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <v>43926</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>10032</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>43832</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <v>43832</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
         <v>43865</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>43868</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
         <v>43895</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>43900</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>10044</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>43925</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>43926</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>11</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>10021</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>43878</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>43880</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>12</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8">
         <v>43913</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>43918</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2497,301 +2496,301 @@
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>10001</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>43831</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>43833</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>10001</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>43845</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>43847</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>3</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>10001</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>43850</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>43854</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>4</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>10001</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <v>43864</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="8">
         <v>43865</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>5</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>10001</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="8">
         <v>43898</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="8">
         <v>43900</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>10001</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="8">
         <v>43926</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="8">
         <v>43926</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>7</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <v>10032</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="8">
         <v>43832</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="8">
         <v>43832</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>8</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <v>10032</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="8">
         <v>43865</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="8">
         <v>43868</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>9</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="7">
         <v>10032</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="8">
         <v>43895</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="8">
         <v>43900</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>10</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="7">
         <v>10044</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="8">
         <v>43925</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="8">
         <v>43926</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>11</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="7">
         <v>10021</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="8">
         <v>43878</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="8">
         <v>43880</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>12</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>10021</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="8">
         <v>43913</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="8">
         <v>43918</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2804,192 +2803,189 @@
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="13" t="s">
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>1</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="7">
         <v>10001</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>2</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="7">
         <v>10001</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>3</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="7">
         <v>10001</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>4</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="7">
         <v>10001</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>5</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="7">
         <v>10001</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>6</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="7">
         <v>10001</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>7</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="7">
         <v>10032</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>8</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="7">
         <v>10032</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>9</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="7">
         <v>10032</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>10</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="7">
         <v>10044</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>11</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="7">
         <v>10021</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>12</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="7">
         <v>10021</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2999,200 +2995,200 @@
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="10">
+      <c r="C52" s="7">
         <v>1</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="8">
         <v>43831</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="8">
         <v>43833</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="10">
+      <c r="C53" s="7">
         <v>2</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="8">
         <v>43845</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="8">
         <v>43847</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="10">
+      <c r="C54" s="7">
         <v>3</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="8">
         <v>43850</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="8">
         <v>43854</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>4</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="8">
         <v>43864</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="8">
         <v>43865</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="10">
+      <c r="C56" s="7">
         <v>5</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="8">
         <v>43898</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="8">
         <v>43900</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="10">
+      <c r="C57" s="7">
         <v>6</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="8">
         <v>43926</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="8">
         <v>43926</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="10">
+      <c r="C58" s="7">
         <v>7</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="8">
         <v>43832</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="8">
         <v>43832</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="10">
+      <c r="C59" s="7">
         <v>8</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="8">
         <v>43865</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="8">
         <v>43868</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="10">
+      <c r="C60" s="7">
         <v>9</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="8">
         <v>43895</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="8">
         <v>43900</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="10">
+      <c r="C61" s="7">
         <v>10</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="8">
         <v>43925</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="8">
         <v>43926</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="10">
+      <c r="C62" s="7">
         <v>11</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="8">
         <v>43878</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="8">
         <v>43880</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="10">
+      <c r="C63" s="7">
         <v>12</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="8">
         <v>43913</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="8">
         <v>43918</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>51</v>
       </c>
@@ -3200,324 +3196,427 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>78</v>
       </c>
       <c r="F68" t="s">
         <v>76</v>
       </c>
-      <c r="J68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="9" t="s">
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C70" s="10">
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="7">
         <v>10001</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="7">
         <v>1</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J70" s="10">
-        <v>1</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L70" s="11">
-        <v>43831</v>
-      </c>
-      <c r="M70" s="11">
-        <v>43833</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C71" s="10">
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="7">
         <v>10032</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="7">
         <v>2</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J71" s="10">
-        <v>2</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L71" s="11">
-        <v>43845</v>
-      </c>
-      <c r="M71" s="11">
-        <v>43847</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C72" s="10">
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="7">
         <v>10044</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="7">
         <v>3</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J72" s="10">
-        <v>3</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L72" s="11">
-        <v>43850</v>
-      </c>
-      <c r="M72" s="11">
-        <v>43854</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C73" s="10">
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="7">
         <v>10021</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="7">
         <v>4</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J73" s="10">
-        <v>4</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L73" s="11">
-        <v>43864</v>
-      </c>
-      <c r="M73" s="11">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="F74" s="10">
+      <c r="F74" s="7">
         <v>5</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J74" s="10">
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F75" s="7">
+        <v>6</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F76" s="7">
+        <v>7</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="7">
+        <v>8</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="7">
+        <v>9</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="7">
+        <v>10</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="7">
+        <v>2</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="7">
+        <v>11</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="7">
+        <v>3</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="7">
+        <v>12</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="7">
+        <v>4</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="7">
         <v>5</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="D83" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L74" s="11">
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="7">
+        <v>6</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="7">
+        <v>7</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" s="8">
+        <v>43831</v>
+      </c>
+      <c r="I85" s="8">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="7">
+        <v>8</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="7">
+        <v>2</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" s="8">
+        <v>43845</v>
+      </c>
+      <c r="I86" s="8">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87" s="7">
+        <v>9</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" s="7">
+        <v>3</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H87" s="8">
+        <v>43850</v>
+      </c>
+      <c r="I87" s="8">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="7">
+        <v>10</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F88" s="7">
+        <v>4</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" s="8">
+        <v>43864</v>
+      </c>
+      <c r="I88" s="8">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="7">
+        <v>11</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F89" s="7">
+        <v>5</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H89" s="8">
         <v>43898</v>
       </c>
-      <c r="M74" s="11">
+      <c r="I89" s="8">
         <v>43900</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F75" s="10">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="7">
+        <v>12</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F90" s="7">
         <v>6</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J75" s="10">
-        <v>6</v>
-      </c>
-      <c r="K75" s="10" t="s">
+      <c r="G90" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L75" s="11">
+      <c r="H90" s="8">
         <v>43926</v>
       </c>
-      <c r="M75" s="11">
+      <c r="I90" s="8">
         <v>43926</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F76" s="10">
-        <v>7</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J76" s="10">
-        <v>7</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L76" s="11">
-        <v>43832</v>
-      </c>
-      <c r="M76" s="11">
-        <v>43832</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F77" s="10">
-        <v>8</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J77" s="10">
-        <v>8</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L77" s="11">
-        <v>43865</v>
-      </c>
-      <c r="M77" s="11">
-        <v>43868</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F78" s="10">
-        <v>9</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J78" s="10">
-        <v>9</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L78" s="11">
-        <v>43895</v>
-      </c>
-      <c r="M78" s="11">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F79" s="10">
-        <v>10</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J79" s="10">
-        <v>10</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L79" s="11">
-        <v>43925</v>
-      </c>
-      <c r="M79" s="11">
-        <v>43926</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F80" s="10">
-        <v>11</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J80" s="10">
-        <v>11</v>
-      </c>
-      <c r="K80" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L80" s="11">
-        <v>43878</v>
-      </c>
-      <c r="M80" s="11">
-        <v>43880</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F81" s="10">
-        <v>12</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J81" s="10">
-        <v>12</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L81" s="11">
-        <v>43913</v>
-      </c>
-      <c r="M81" s="11">
-        <v>43918</v>
-      </c>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F91" s="7">
+        <v>7</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" s="8">
+        <v>43832</v>
+      </c>
+      <c r="I91" s="8">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F92" s="7">
+        <v>8</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" s="8">
+        <v>43865</v>
+      </c>
+      <c r="I92" s="8">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F93" s="7">
+        <v>9</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" s="8">
+        <v>43895</v>
+      </c>
+      <c r="I93" s="8">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
+      <c r="F94" s="7">
+        <v>10</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H94" s="8">
+        <v>43925</v>
+      </c>
+      <c r="I94" s="8">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F95" s="7">
+        <v>11</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H95" s="8">
+        <v>43878</v>
+      </c>
+      <c r="I95" s="8">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F96" s="7">
+        <v>12</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" s="8">
+        <v>43913</v>
+      </c>
+      <c r="I96" s="8">
+        <v>43918</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
